--- a/다둥이 정책.xlsx
+++ b/다둥이 정책.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rium\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaraemediaM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF72D0E-36E3-45BD-8C2A-3A9C8CC78BC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2BAD8D7-3D6F-4994-A7FF-AC9F73455F3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>seoulcity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,20 +539,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A2097-BDCF-4C0C-9EB5-99A8094288EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="18.3984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +578,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="78" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +604,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="162" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -631,7 +630,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -657,412 +656,157 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I5" s="4"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I7" s="5"/>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I8" s="5"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I9" s="5"/>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I10" s="4"/>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I11" s="4"/>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I12" s="5"/>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I13" s="4"/>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I14" s="5"/>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I15" s="5"/>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I16" s="5"/>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I17" s="5"/>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I18" s="5"/>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I19" s="5"/>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="5"/>
     </row>
   </sheetData>
